--- a/기획자료/dot_breeder_dialogue.xlsx
+++ b/기획자료/dot_breeder_dialogue.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\담비\Desktop\Dot-Breeder\발표자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\담비\Desktop\Dot-Breeder\기획자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27C4A81-F9EE-449C-9018-2788929800ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768B3B89-B1B4-4907-BD28-22E82EF88C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1620" windowWidth="24825" windowHeight="15435" activeTab="1" xr2:uid="{7ADB2DC1-EAA6-4923-8D9A-9E941AA8A7EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{7ADB2DC1-EAA6-4923-8D9A-9E941AA8A7EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="tutorial" sheetId="4" r:id="rId1"/>
-    <sheet name="숲-1" sheetId="6" r:id="rId2"/>
-    <sheet name="adultdot" sheetId="3" r:id="rId3"/>
+    <sheet name="설명" sheetId="8" r:id="rId1"/>
+    <sheet name="EP.0 시작" sheetId="4" r:id="rId2"/>
+    <sheet name="EP.1 낯선 공간" sheetId="9" r:id="rId3"/>
+    <sheet name="EP.2" sheetId="10" r:id="rId4"/>
+    <sheet name="Dot_Interaction" sheetId="11" r:id="rId5"/>
+    <sheet name="adultdot" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,11 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
-  <si>
-    <t>[System]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="160">
   <si>
     <t>분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,23 +196,6 @@
     <t>그래도 돌아다니면서 뭐라도 찾아보자</t>
   </si>
   <si>
-    <t>이동-WASD</t>
-  </si>
-  <si>
-    <t>채집, 상호작용-좌클릭</t>
-  </si>
-  <si>
-    <t>설정-ESC</t>
-  </si>
-  <si>
-    <t>채집자원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">상호작용 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,22 +204,444 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가지고 있던 단검으로 돌을 부실 수 있을 것 같다.</t>
-  </si>
-  <si>
-    <t>선택지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부셔볼까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>playerName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기억나는게… [playerName] 내 이름 밖에 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이외의 내용. 연출, 개발시 고려해야될 사항 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3 으로 구분되며, 1은 내 대사창, 2는 상대 대사창, 3은 시스템 대사창이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임의 이름 창에 실제로 출력되는 내용. 텍스트 박스3 인 경우에는 필요 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임의 대화 창에 실제로 출력되는 내용.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임의 이미지 창에 실제로 출력되는 이미지 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용 대상을 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 상호작용을 했을시 출력되는 대사이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 내 대사</t>
+  </si>
+  <si>
+    <t>1 내 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 상대 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 시스템 대사</t>
+  </si>
+  <si>
+    <t>3 시스템 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자가 증가되고, 100이 되면 다음 텍스트 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅡ</t>
+  </si>
+  <si>
+    <t>이미지 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공 찌푸린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공 기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 내 대사창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 상대 대사창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 시스템 대사창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공 놀란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 시스템메시지</t>
+  </si>
+  <si>
+    <t>1 시스템메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 일반 대사</t>
+  </si>
+  <si>
+    <t>2 일반 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 상호작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerName</t>
+  </si>
+  <si>
+    <t>주인공 웃음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채집자원 돌</t>
+  </si>
+  <si>
+    <t>팻말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 잔해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망가진 조합기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그루터기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채집 자원 돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문 팻말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문 호수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문 건물 잔해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문 망가진 조합기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문 그루터기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문 데이터조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지고 있던 단검으로 부술 수 있을 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사 순서나 창 바뀜을 표기, 상호작용 대사는 순서가 따로 없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/쨍그랑/</t>
+  </si>
+  <si>
+    <t>돌을 깨자 안에서 의문의 조각을 발견했다. 가까이 가 조각을 주워보자.</t>
+  </si>
+  <si>
+    <t>픽셀조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>픽..셀.. 조각? 뭔 진 모르겠지만 가지고 있다 보면 쓸 일이 있지 않을까</t>
+  </si>
+  <si>
+    <t>느낌표 말풍선이 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용 후 채집자원은 사라지고 그 자리에 픽셀조각이 생성.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각 주으면 아이템 획득 UI 뜨고서 느낌표 말풍선이 있음. 상호작용 후 픽셀조각 사라짐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 획득시 대사</t>
+  </si>
+  <si>
+    <t>4 획득시 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 상호작용 대사</t>
+  </si>
+  <si>
+    <t>3 상호작용 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드문드문 글자가 지워져 읽을 수 없다.</t>
+  </si>
+  <si>
+    <t>느낌표 말풍선, 한번 상호작용하면 느낌표 말풍선는 비활성화됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문 팻말</t>
+  </si>
+  <si>
+    <t>호수</t>
+  </si>
+  <si>
+    <t>방문 호수</t>
+  </si>
+  <si>
+    <t>호수에 비친 내 모습이 유독 낯설게 느껴진다.</t>
+  </si>
+  <si>
+    <t>호수에 비친 내 모습이 유독 낯설게 느껴진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공 노이즈</t>
+  </si>
+  <si>
+    <t>주인공 노이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">느낌표 말풍선. 상호작용 -&gt; 컷씬 5초 -&gt; 텍스트출력, 한번 상호작용하면 느낌표 말풍선은 비활성화 됨. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 잔해</t>
+  </si>
+  <si>
+    <t>잔해를 파헤쳐 책 한 권을 획득했다. 
+TAP을 눌러 내용을 확인해보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">잔해를 파헤쳐 책 한 권을 획득했다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAP을 눌러 내용을 확인해보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합법 오픈
+퀘스트 오픈
+기록창 오픈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느낌표 말풍선. 상호작용-&gt;건물잔해 사라짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">망가졌지만 고쳐서 쓸 수 있을 것 같다. </t>
+  </si>
+  <si>
+    <t>“조합기를 고치자” 퀘스트가 추가 되었다.</t>
+  </si>
+  <si>
+    <t>망가진 조합기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">망가졌지만 고쳐서 쓸 수 있을 것 같다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문 망가진 조합기</t>
+  </si>
+  <si>
+    <t>느낌표 말풍선 있음. 조각 주으면 아이템 획득 UI 뜸. 획득시 픽셀조각 파괴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느낌표 말풍선 있음. 한번 상호작용하면 느낌표 말풍선는 비활성화됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느낌표 말풍선 있음. 채집가능. 상호작용시 느낌표 사라지지 않음. 채집시 채집자원이 파괴되고 그 자리에 픽셀조각 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동-WASD
+상호작용-E
+채집 - 좌클릭
+설정-ESC
+정보창-TAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 키우고 있는 녀석은 어때? 나처럼 말썽만 안 피우면 좋으려만</t>
+  </si>
+  <si>
+    <t>애들은 다 그러면서 크는거지!</t>
+  </si>
+  <si>
+    <t>어이! 오랜만이네. 얼굴 좀 자주 보자!</t>
+  </si>
+  <si>
+    <t>가끔 그때 그 시절이 그리울 때가 있지.</t>
+  </si>
+  <si>
+    <t>요즘도 취미로 나무를 깍고있어. 필요한거 있으면 말만해</t>
+  </si>
+  <si>
+    <t>요즘 같은 시대에는 근력이 필수지! 근력엔 벌목만한게 없어! 불끈</t>
+  </si>
+  <si>
+    <t>문식이</t>
+  </si>
+  <si>
+    <t>문식이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머핀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아그니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 상대 대사</t>
+  </si>
+  <si>
+    <t>문식이1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머핀1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머핀2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머핀3</t>
+  </si>
+  <si>
+    <t>머핀4</t>
+  </si>
+  <si>
+    <t>머핀5</t>
+  </si>
+  <si>
+    <t>헤론1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤론2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤론3</t>
+  </si>
+  <si>
+    <t>헤론4</t>
+  </si>
+  <si>
+    <t>헤론5</t>
+  </si>
+  <si>
+    <t>아그니1</t>
+  </si>
+  <si>
+    <t>아그니1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이 기본</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +649,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +664,45 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -276,10 +719,34 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -290,7 +757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,11 +767,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -321,6 +884,247 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6038ED69-9232-4FDA-967A-509EF1C7C7EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="2314575"/>
+          <a:ext cx="7772400" cy="2381515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>549519</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>65943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>835268</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>65943</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="말풍선: 사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A15FA2-DA63-434A-B610-9A1CE6FE52D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3363057" y="3040674"/>
+          <a:ext cx="3326423" cy="637442"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -21053"/>
+            <a:gd name="adj2" fmla="val 69397"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>기본 이미지 파일 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t> 주인공 노이즈</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>호수 방문시 이미지파일 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>주인공 기본으로 변경</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>549519</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>65943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>835268</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>65943</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="말풍선: 사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFF7D112-89E5-42F8-885A-6980A8FC2D32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3359394" y="3209193"/>
+          <a:ext cx="3324224" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -21053"/>
+            <a:gd name="adj2" fmla="val 69397"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>기본 이미지 파일 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t> 주인공 노이즈</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>호수 방문시 이미지파일 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>주인공 기본으로 변경</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -619,219 +1423,1925 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CA02F5-ABFA-4F06-9DB6-AA2C745C2E74}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2B8444-8104-4CDC-8255-2ED3DB01B5C4}">
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="78" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4"/>
+      <c r="E4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7"/>
+      <c r="G7" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-    </row>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10"/>
+    </row>
+    <row r="20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3229C261-781D-4B92-837B-6F540171A8C1}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CA02F5-ABFA-4F06-9DB6-AA2C745C2E74}">
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.25" customWidth="1"/>
-    <col min="2" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="78" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="12.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="13.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="78" customWidth="1"/>
+    <col min="8" max="8" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="30">
+        <v>2</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="30">
+        <v>3</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="30">
+        <v>4</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="30">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
+      <c r="B18" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>6</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F12:F13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:B12 B14 B16 B18 B20:B54" xr:uid="{E58E86EE-DDE3-4703-9A2B-374B6C463429}">
+      <formula1>$B$3:$B$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D14 D16 D18 D20:D42" xr:uid="{BF684676-8291-41AE-8029-82F67F182BC7}">
+      <formula1>$D$3:$D$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F12 F14 F16 F18 F20:F40" xr:uid="{9C4FDDD1-4E22-4A36-9001-7EF68880D143}">
+      <formula1>$F$3:$F$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E54 E16 E18 E11:E12 E14" xr:uid="{6F177F1E-19AF-4329-AA90-EC65AF4A6BF1}">
+      <formula1>$E$3:$E$8</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2B4A4F-C426-4474-874A-CC4620811588}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView topLeftCell="H7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="13.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="78" customWidth="1"/>
+    <col min="8" max="8" width="99.625" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="21">
+        <v>2</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="21">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="21">
+        <v>4</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="21">
+        <v>5</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="21">
+        <v>6</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="33">
+        <v>7</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="B29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="21">
+        <v>8</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A28:A29"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45" xr:uid="{1DE65D28-390B-4578-95A5-EC25C923B744}">
+      <formula1>$C$3:$C$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:B69" xr:uid="{512D2D93-CF5F-4692-8360-909C1ECD9394}">
+      <formula1>$B$3:$B$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22:D51" xr:uid="{E414E379-9A75-43A3-A2C0-2F8A4A52A87C}">
+      <formula1>$D$3:$D$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:F49" xr:uid="{BA3DECCB-3D49-44DE-AC55-E34231423FC4}">
+      <formula1>$F$3:$F$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22:E63" xr:uid="{427D4ADE-87DA-47FD-8F74-86C922107ABB}">
+      <formula1>$E$3:$E$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C44" xr:uid="{5557C3B2-9BC1-4899-BC78-2231A83B2AEA}">
+      <formula1>$C$3:$C$17</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36C1DB6-A6E7-4F94-8CDF-3A6F08C26A8A}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="13.625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="78" customWidth="1"/>
+    <col min="8" max="8" width="85.25" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="33">
+        <v>1</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="33"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="33"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
+        <v>2</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
+        <v>3</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="22">
+        <v>4</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="22">
+        <v>5</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="22">
+        <v>6</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" s="33">
+        <v>7</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="33"/>
+      <c r="B30" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="33">
+        <v>8</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="33"/>
+      <c r="B32" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="22">
+        <v>9</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C45" xr:uid="{5DA0E296-2CD5-4F0F-B696-7A29C53AC59A}">
+      <formula1>$C$3:$C$17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46" xr:uid="{5C6B6492-E8C9-489C-84D5-16310E69C820}">
+      <formula1>$C$3:$C$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:E64" xr:uid="{D62B2E70-A95B-4463-B3CB-4B9FBFEF8DCF}">
+      <formula1>$E$3:$E$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:F50" xr:uid="{99A1A5C5-43E4-4406-9CB3-00BF84A30FB8}">
+      <formula1>$F$3:$F$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21:D52" xr:uid="{9DF86B28-CDBF-4AAB-9B45-719E1C7F2E47}">
+      <formula1>$D$3:$D$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B70" xr:uid="{F302878A-C55F-484C-9339-18ADEEFB1A33}">
+      <formula1>$B$3:$B$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD70F404-ABF6-4608-9F31-1DFA6BED79A0}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="25" customWidth="1"/>
+    <col min="5" max="6" width="13.625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="78" customWidth="1"/>
+    <col min="8" max="8" width="85.25" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="F7" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="33">
+        <v>1</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="33"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34">
+        <v>2</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
+        <v>3</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34">
+        <v>4</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34">
+        <v>5</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F32" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="34"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="34"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="34"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="34"/>
+      <c r="G36" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25 B28:B74" xr:uid="{F4090E84-8870-40DA-B53C-332F8D608D25}">
+      <formula1>$B$3:$B$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25 D28:D56" xr:uid="{470B4567-922C-4735-BC99-B8D3AB29FDBB}">
+      <formula1>$D$3:$D$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E25 E28:E68" xr:uid="{3496D978-4D4F-4D88-8FEB-8B8E73D04BA5}">
+      <formula1>$E$3:$E$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50" xr:uid="{FA1BE6F2-B154-41B6-BB99-53396726BE62}">
+      <formula1>$C$3:$C$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25 C28:C49" xr:uid="{B93B15DF-4BBA-4F9E-BE38-45EBA1A5A968}">
+      <formula1>$C$3:$C$17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25 F28:F54" xr:uid="{E730E97B-FE0F-4903-AD04-BE638BE8D0A7}">
+      <formula1>$F$3:$F$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0289ED08-2F02-4DDF-8D4C-FFCAA6D5036C}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -843,215 +3353,215 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/기획자료/dot_breeder_dialogue.xlsx
+++ b/기획자료/dot_breeder_dialogue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\담비\Desktop\Dot-Breeder\발표자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\담비\Desktop\Dot-Breeder\기획자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27C4A81-F9EE-449C-9018-2788929800ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65106BD-F512-4507-B20B-C02A736DDEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1620" windowWidth="24825" windowHeight="15435" activeTab="1" xr2:uid="{7ADB2DC1-EAA6-4923-8D9A-9E941AA8A7EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{7ADB2DC1-EAA6-4923-8D9A-9E941AA8A7EB}"/>
   </bookViews>
   <sheets>
     <sheet name="tutorial" sheetId="4" r:id="rId1"/>
@@ -766,7 +766,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/기획자료/dot_breeder_dialogue.xlsx
+++ b/기획자료/dot_breeder_dialogue.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\담비\Desktop\Dot-Breeder\기획자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768B3B89-B1B4-4907-BD28-22E82EF88C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282B78A9-651B-4807-84DB-33B7BB36FE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{7ADB2DC1-EAA6-4923-8D9A-9E941AA8A7EB}"/>
+    <workbookView xWindow="6660" yWindow="3045" windowWidth="18510" windowHeight="17835" xr2:uid="{7ADB2DC1-EAA6-4923-8D9A-9E941AA8A7EB}"/>
   </bookViews>
   <sheets>
     <sheet name="설명" sheetId="8" r:id="rId1"/>
     <sheet name="EP.0 시작" sheetId="4" r:id="rId2"/>
     <sheet name="EP.1 낯선 공간" sheetId="9" r:id="rId3"/>
-    <sheet name="EP.2" sheetId="10" r:id="rId4"/>
+    <sheet name="EP.2 미지의 생명체" sheetId="10" r:id="rId4"/>
     <sheet name="Dot_Interaction" sheetId="11" r:id="rId5"/>
     <sheet name="adultdot" sheetId="3" r:id="rId6"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="154">
   <si>
     <t>분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -405,12 +405,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/쨍그랑/</t>
-  </si>
-  <si>
-    <t>돌을 깨자 안에서 의문의 조각을 발견했다. 가까이 가 조각을 주워보자.</t>
-  </si>
-  <si>
     <t>픽셀조각</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -481,11 +475,6 @@
     <t>건물 잔해</t>
   </si>
   <si>
-    <t>잔해를 파헤쳐 책 한 권을 획득했다. 
-TAP을 눌러 내용을 확인해보자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">잔해를 파헤쳐 책 한 권을 획득했다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -494,12 +483,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>조합법 오픈
-퀘스트 오픈
-기록창 오픈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>느낌표 말풍선. 상호작용-&gt;건물잔해 사라짐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,17 +490,7 @@
     <t xml:space="preserve">망가졌지만 고쳐서 쓸 수 있을 것 같다. </t>
   </si>
   <si>
-    <t>“조합기를 고치자” 퀘스트가 추가 되었다.</t>
-  </si>
-  <si>
     <t>망가진 조합기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">망가졌지만 고쳐서 쓸 수 있을 것 같다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방문 망가진 조합기</t>
   </si>
   <si>
     <t>느낌표 말풍선 있음. 조각 주으면 아이템 획득 UI 뜸. 획득시 픽셀조각 파괴</t>
@@ -643,6 +616,9 @@
   <si>
     <t>문식이 기본</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이4</t>
   </si>
 </sst>
 </file>
@@ -757,7 +733,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,9 +779,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -848,6 +821,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -859,12 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -897,7 +879,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>76465</xdr:rowOff>
     </xdr:to>
@@ -971,99 +953,6 @@
         <a:xfrm>
           <a:off x="3363057" y="3040674"/>
           <a:ext cx="3326423" cy="637442"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -21053"/>
-            <a:gd name="adj2" fmla="val 69397"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>기본 이미지 파일 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t> 주인공 노이즈</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>호수 방문시 이미지파일 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>= </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>주인공 기본으로 변경</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>549519</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>65943</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>835268</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>65943</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="말풍선: 사각형 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFF7D112-89E5-42F8-885A-6980A8FC2D32}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3359394" y="3209193"/>
-          <a:ext cx="3324224" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1426,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2B8444-8104-4CDC-8255-2ED3DB01B5C4}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1437,7 +1326,8 @@
     <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="20.125" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="8" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1483,13 +1373,13 @@
         <v>53</v>
       </c>
       <c r="C4"/>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1521,16 +1411,16 @@
         <v>47</v>
       </c>
       <c r="C7"/>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="18"/>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -1588,13 +1478,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
@@ -1649,7 +1539,7 @@
         <v>59</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1722,22 +1612,22 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+      <c r="A12" s="34">
         <v>2</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="34" t="s">
         <v>41</v>
       </c>
       <c r="G12" t="s">
@@ -1748,33 +1638,33 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="G13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
+      <c r="A14" s="34">
         <v>3</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="30" t="s">
+      <c r="E14" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="34" t="s">
         <v>42</v>
       </c>
       <c r="G14" t="s">
@@ -1782,33 +1672,33 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
       <c r="G15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
+      <c r="A16" s="34">
         <v>4</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="34" t="s">
         <v>76</v>
       </c>
       <c r="G16" t="s">
@@ -1816,33 +1706,33 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
       <c r="G17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="30">
+      <c r="A18" s="34">
         <v>5</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="30" t="s">
+      <c r="E18" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="34" t="s">
         <v>76</v>
       </c>
       <c r="G18" t="s">
@@ -1850,12 +1740,12 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
       <c r="G19" t="s">
         <v>39</v>
       </c>
@@ -1880,7 +1770,7 @@
         <v>62</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1894,16 +1784,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B1:F1"/>
@@ -1919,6 +1808,7 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
@@ -1944,29 +1834,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2B4A4F-C426-4474-874A-CC4620811588}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="H7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:H21"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="20" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="4" customWidth="1"/>
     <col min="5" max="6" width="13.625" style="5" customWidth="1"/>
     <col min="7" max="7" width="78" customWidth="1"/>
-    <col min="8" max="8" width="99.625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="99.625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
@@ -1985,8 +1875,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+    <row r="3" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
       <c r="B3" s="5" t="s">
         <v>72</v>
       </c>
@@ -2002,14 +1892,14 @@
       <c r="F3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>57</v>
@@ -2023,7 +1913,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>79</v>
@@ -2032,12 +1922,12 @@
         <v>59</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>86</v>
@@ -2077,7 +1967,7 @@
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="13"/>
       <c r="C11" s="4" t="s">
         <v>82</v>
@@ -2124,7 +2014,7 @@
     </row>
     <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="13"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -2153,16 +2043,16 @@
       <c r="G21" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="21">
         <v>1</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>78</v>
@@ -2176,22 +2066,22 @@
       <c r="F22" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="20" t="s">
-        <v>128</v>
+      <c r="H22" s="19" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
+      <c r="A23" s="20">
         <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>55</v>
@@ -2203,18 +2093,18 @@
         <v>76</v>
       </c>
       <c r="G23" t="s">
-        <v>97</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>126</v>
+        <v>95</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
+      <c r="A24" s="20">
         <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>79</v>
@@ -2229,21 +2119,21 @@
         <v>76</v>
       </c>
       <c r="G24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
+        <v>4</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
-        <v>4</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>55</v>
@@ -2255,18 +2145,18 @@
         <v>76</v>
       </c>
       <c r="G25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
+      <c r="A26" s="20">
         <v>5</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>55</v>
@@ -2278,21 +2168,21 @@
         <v>76</v>
       </c>
       <c r="G26" t="s">
-        <v>110</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
+      <c r="A27" s="20">
         <v>6</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>55</v>
@@ -2304,18 +2194,18 @@
         <v>76</v>
       </c>
       <c r="G27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="33">
+      <c r="A28" s="37">
         <v>7</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>55</v>
@@ -2327,11 +2217,11 @@
         <v>76</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="5" t="s">
         <v>71</v>
       </c>
@@ -2348,21 +2238,21 @@
         <v>62</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="20">
+        <v>8</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
-        <v>8</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2401,49 +2291,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36C1DB6-A6E7-4F94-8CDF-3A6F08C26A8A}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="21" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="13" customWidth="1"/>
     <col min="3" max="3" width="16.875" style="6" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="6" customWidth="1"/>
     <col min="5" max="6" width="13.625" style="13" customWidth="1"/>
     <col min="7" max="7" width="78" customWidth="1"/>
-    <col min="8" max="8" width="85.25" style="20" customWidth="1"/>
+    <col min="8" max="8" width="85.25" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+    <row r="3" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
       <c r="B3" s="13" t="s">
         <v>72</v>
       </c>
@@ -2459,14 +2349,14 @@
       <c r="F3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>57</v>
@@ -2480,7 +2370,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>79</v>
@@ -2489,12 +2379,12 @@
         <v>59</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>86</v>
@@ -2577,10 +2467,10 @@
     </row>
     <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -2589,291 +2479,114 @@
       <c r="D20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="33">
+      <c r="A21" s="37">
         <v>1</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="20" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="37"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="H22" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="37"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="21">
+        <v>2</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="H24" s="19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
-        <v>2</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="22">
+      <c r="A25" s="21">
         <v>3</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>106</v>
+      <c r="D25" s="13"/>
+      <c r="H25" s="19" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
+      <c r="A26" s="21">
         <v>4</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="21">
         <v>5</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>114</v>
+      <c r="H27" s="19" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
+      <c r="A28" s="21">
         <v>6</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="33">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="37">
         <v>7</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="2"/>
+      <c r="H29" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="H29" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>119</v>
-      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="37"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="33">
+      <c r="A31" s="37">
         <v>8</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
-      <c r="B32" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="22">
+      <c r="A32" s="37"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="21">
         <v>9</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2911,230 +2624,229 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD70F404-ABF6-4608-9F31-1DFA6BED79A0}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="25" customWidth="1"/>
-    <col min="5" max="6" width="13.625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="24" customWidth="1"/>
+    <col min="5" max="6" width="13.625" style="25" customWidth="1"/>
     <col min="7" max="7" width="78" customWidth="1"/>
-    <col min="8" max="8" width="85.25" style="20" customWidth="1"/>
+    <col min="8" max="8" width="85.25" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="F7" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="25" t="s">
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="25" t="s">
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="25" t="s">
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="F7" s="26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="25" t="s">
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="25" t="s">
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="26"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="25" t="s">
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="26"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="25" t="s">
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="26"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="26"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="26"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="26"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="26"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="26"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="26"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="25" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" s="26" t="s">
+      <c r="C21" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="26" t="s">
+      <c r="C22" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -3143,172 +2855,219 @@
       <c r="D24" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
+      <c r="A25" s="37">
         <v>1</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="36" t="s">
+      <c r="B25" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30">
+        <v>2</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
+        <v>3</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="30">
+        <v>4</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30">
+        <v>5</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
+      <c r="B33" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="C34" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="31"/>
+      <c r="C35" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+      <c r="C36" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34">
-        <v>2</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="F28" s="26" t="s">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="G28" s="35" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
-        <v>3</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="F29" s="26" t="s">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="G29" s="35" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34">
-        <v>4</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
-        <v>5</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F32" s="26" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="34"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
-      <c r="G36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B1:F1"/>
     <mergeCell ref="F25:F27"/>
     <mergeCell ref="E25:E27"/>
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
@@ -3324,7 +3083,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50" xr:uid="{FA1BE6F2-B154-41B6-BB99-53396726BE62}">
       <formula1>$C$3:$C$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25 C28:C49" xr:uid="{B93B15DF-4BBA-4F9E-BE38-45EBA1A5A968}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25 C28:C34 C41:C49" xr:uid="{B93B15DF-4BBA-4F9E-BE38-45EBA1A5A968}">
       <formula1>$C$3:$C$17</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25 F28:F54" xr:uid="{E730E97B-FE0F-4903-AD04-BE638BE8D0A7}">
@@ -3341,7 +3100,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/기획자료/dot_breeder_dialogue.xlsx
+++ b/기획자료/dot_breeder_dialogue.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\담비\Desktop\Dot-Breeder\기획자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282B78A9-651B-4807-84DB-33B7BB36FE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3792822B-E327-4371-B0A2-77C98D244FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="3045" windowWidth="18510" windowHeight="17835" xr2:uid="{7ADB2DC1-EAA6-4923-8D9A-9E941AA8A7EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="5" xr2:uid="{7ADB2DC1-EAA6-4923-8D9A-9E941AA8A7EB}"/>
   </bookViews>
   <sheets>
     <sheet name="설명" sheetId="8" r:id="rId1"/>
     <sheet name="EP.0 시작" sheetId="4" r:id="rId2"/>
     <sheet name="EP.1 낯선 공간" sheetId="9" r:id="rId3"/>
     <sheet name="EP.2 미지의 생명체" sheetId="10" r:id="rId4"/>
-    <sheet name="Dot_Interaction" sheetId="11" r:id="rId5"/>
-    <sheet name="adultdot" sheetId="3" r:id="rId6"/>
+    <sheet name="Munsik_Interaction" sheetId="11" r:id="rId5"/>
+    <sheet name="Murphin_Interaction" sheetId="12" r:id="rId6"/>
+    <sheet name="Heron_Interaction" sheetId="14" r:id="rId7"/>
+    <sheet name="Agni_Interaction" sheetId="13" r:id="rId8"/>
+    <sheet name="Murphin_ultdot" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="196">
   <si>
     <t>분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,21 +516,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요즘 키우고 있는 녀석은 어때? 나처럼 말썽만 안 피우면 좋으려만</t>
-  </si>
-  <si>
     <t>애들은 다 그러면서 크는거지!</t>
   </si>
   <si>
-    <t>어이! 오랜만이네. 얼굴 좀 자주 보자!</t>
-  </si>
-  <si>
-    <t>가끔 그때 그 시절이 그리울 때가 있지.</t>
-  </si>
-  <si>
-    <t>요즘도 취미로 나무를 깍고있어. 필요한거 있으면 말만해</t>
-  </si>
-  <si>
     <t>요즘 같은 시대에는 근력이 필수지! 근력엔 벌목만한게 없어! 불끈</t>
   </si>
   <si>
@@ -581,51 +572,621 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>머핀4</t>
+  </si>
+  <si>
+    <t>머핀5</t>
+  </si>
+  <si>
+    <t>헤론1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤론2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤론3</t>
+  </si>
+  <si>
+    <t>헤론4</t>
+  </si>
+  <si>
+    <t>헤론5</t>
+  </si>
+  <si>
+    <t>아그니1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오랜만이네</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>얼굴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요즘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>키우고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>녀석은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나처럼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말썽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피우면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋으련만</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요즘도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취미로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나무를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>깍고있어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필요한거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말만 해</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이1</t>
+  </si>
+  <si>
+    <t>뭄!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>므아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이1 기본</t>
+  </si>
+  <si>
+    <t>문식이1 기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이1 콧물</t>
+  </si>
+  <si>
+    <t>문식이1 콧물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이2 기본</t>
+  </si>
+  <si>
+    <t>문식이2 기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이2 웃는</t>
+  </si>
+  <si>
+    <t>문식이2 웃는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이2 우는</t>
+  </si>
+  <si>
+    <t>문식이2 우는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공 생각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이3 기본</t>
+  </si>
+  <si>
+    <t>문식이3 기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이3 삐짐</t>
+  </si>
+  <si>
+    <t>문식이3 삐짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이4 웃음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이4 기본</t>
+  </si>
+  <si>
+    <t>문식이4 기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">문식이4 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조금만 더 크면 ㅇㅇ의 키를 따라 잡겠어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 나랑 ㅇㅇ은 모습이 다른거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공부는 싫어 하루종일 놀래!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무와 곤충들은 내 친구야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맘마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>까르르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐애앵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이1 시무룩</t>
+  </si>
+  <si>
+    <t>문식이1 시무룩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이5 기본</t>
+  </si>
+  <si>
+    <t>문식이5 기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이5 웃음</t>
+  </si>
+  <si>
+    <t>문식이5 웃음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머핀</t>
+  </si>
+  <si>
     <t>머핀3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>머핀4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>머핀5</t>
-  </si>
-  <si>
-    <t>헤론1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤론2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤론3</t>
-  </si>
-  <si>
-    <t>헤론4</t>
-  </si>
-  <si>
-    <t>헤론5</t>
-  </si>
-  <si>
-    <t>아그니1</t>
-  </si>
-  <si>
-    <t>아그니1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문식이 기본</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문식이4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아그니2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아그니3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아그니4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아그니5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머핀1 기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머핀2 기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,6 +1241,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -733,7 +1308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -850,6 +1425,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1315,7 +1908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2B8444-8104-4CDC-8255-2ED3DB01B5C4}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1478,13 +2071,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
@@ -1612,22 +2205,22 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="34">
+      <c r="A12" s="39">
         <v>2</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="39" t="s">
         <v>41</v>
       </c>
       <c r="G12" t="s">
@@ -1638,33 +2231,33 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
       <c r="G13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="34">
+      <c r="A14" s="39">
         <v>3</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="39" t="s">
         <v>42</v>
       </c>
       <c r="G14" t="s">
@@ -1672,33 +2265,33 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
       <c r="G15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
+      <c r="A16" s="39">
         <v>4</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="39" t="s">
         <v>76</v>
       </c>
       <c r="G16" t="s">
@@ -1706,33 +2299,33 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
       <c r="G17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="34">
+      <c r="A18" s="39">
         <v>5</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="39" t="s">
         <v>76</v>
       </c>
       <c r="G18" t="s">
@@ -1740,12 +2333,12 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
       <c r="G19" t="s">
         <v>39</v>
       </c>
@@ -1784,17 +2377,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
@@ -1809,6 +2391,17 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
@@ -1850,13 +2443,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
@@ -2198,7 +2791,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="37">
+      <c r="A28" s="42">
         <v>7</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -2221,7 +2814,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="5" t="s">
         <v>71</v>
       </c>
@@ -2307,13 +2900,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
@@ -2493,37 +3086,37 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="37">
+      <c r="A21" s="42">
         <v>1</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
       <c r="H22" s="19" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
@@ -2562,7 +3155,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="37">
+      <c r="A29" s="42">
         <v>7</v>
       </c>
       <c r="G29" s="2"/>
@@ -2571,17 +3164,17 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
+      <c r="A30" s="42"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="37">
+      <c r="A31" s="42">
         <v>8</v>
       </c>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
+      <c r="A32" s="42"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -2629,10 +3222,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD70F404-ABF6-4608-9F31-1DFA6BED79A0}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2647,13 +3240,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
@@ -2678,7 +3271,7 @@
         <v>72</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>56</v>
@@ -2696,16 +3289,16 @@
         <v>74</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2713,13 +3306,16 @@
         <v>102</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>59</v>
       </c>
+      <c r="E5" s="25" t="s">
+        <v>181</v>
+      </c>
       <c r="F5" s="25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2727,367 +3323,531 @@
         <v>100</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>138</v>
+        <v>134</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>157</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>159</v>
+      </c>
       <c r="F7" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="25"/>
-    </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="24" t="s">
-        <v>145</v>
-      </c>
       <c r="D13" s="25"/>
+      <c r="E13" s="25" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="24" t="s">
-        <v>146</v>
-      </c>
       <c r="D14" s="25"/>
+      <c r="E14" s="25" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="24" t="s">
-        <v>147</v>
-      </c>
       <c r="D15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="24" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="37"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="F22" s="34"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:8" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="42">
+        <v>1</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="25"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="25"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="26" t="s">
+    </row>
+    <row r="27" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="30">
         <v>2</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37">
-        <v>1</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
-        <v>2</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30">
-        <v>3</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>101</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>182</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>101</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>182</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30">
-        <v>5</v>
+      <c r="A31" s="37">
+        <v>4</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>101</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>184</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="37">
+        <v>5</v>
+      </c>
       <c r="B32" s="25" t="s">
         <v>101</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
+      <c r="A33" s="37">
+        <v>6</v>
+      </c>
       <c r="B33" s="25" t="s">
         <v>101</v>
       </c>
       <c r="C33" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="37">
+        <v>7</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="37">
+        <v>8</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="37">
+        <v>9</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="37">
+        <v>10</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="37">
+        <v>11</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="37">
+        <v>12</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="37">
+        <v>13</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="37">
+        <v>14</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="37">
+        <v>15</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="37">
+        <v>16</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" t="s">
         <v>153</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
-      <c r="C34" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
-      <c r="C35" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
-      <c r="C36" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C37" s="29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C38" s="29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C39" s="29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C40" s="29" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25 B28:B74" xr:uid="{F4090E84-8870-40DA-B53C-332F8D608D25}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26 B29:B74" xr:uid="{F4090E84-8870-40DA-B53C-332F8D608D25}">
       <formula1>$B$3:$B$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25 D28:D56" xr:uid="{470B4567-922C-4735-BC99-B8D3AB29FDBB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26 D29:D56" xr:uid="{470B4567-922C-4735-BC99-B8D3AB29FDBB}">
       <formula1>$D$3:$D$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E25 E28:E68" xr:uid="{3496D978-4D4F-4D88-8FEB-8B8E73D04BA5}">
-      <formula1>$E$3:$E$15</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50" xr:uid="{FA1BE6F2-B154-41B6-BB99-53396726BE62}">
       <formula1>$C$3:$C$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25 C28:C34 C41:C49" xr:uid="{B93B15DF-4BBA-4F9E-BE38-45EBA1A5A968}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26 C41:C49 C29:C34" xr:uid="{B93B15DF-4BBA-4F9E-BE38-45EBA1A5A968}">
       <formula1>$C$3:$C$17</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25 F28:F54" xr:uid="{E730E97B-FE0F-4903-AD04-BE638BE8D0A7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26 F29:F54" xr:uid="{E730E97B-FE0F-4903-AD04-BE638BE8D0A7}">
       <formula1>$F$3:$F$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:E155" xr:uid="{C17B4FE9-30E0-4663-9E42-25D0359AB030}">
+      <formula1>$E$3:$E$23</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3096,11 +3856,1673 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9985A9B1-EB7D-40DF-92F0-C2703D8D4924}">
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="36" customWidth="1"/>
+    <col min="5" max="6" width="13.625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="78" customWidth="1"/>
+    <col min="8" max="8" width="85.25" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="34"/>
+      <c r="E9" s="34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="34"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D17" s="34"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="37">
+        <v>1</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="37">
+        <v>2</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="37">
+        <v>3</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="37">
+        <v>4</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="C32" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
+      <c r="C33" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="C34" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C35" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C36" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G38" s="19"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C41" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C32 C39:C41 C44:C49" xr:uid="{42A68DF2-05B9-458B-AA75-00B3E63741E2}">
+      <formula1>$C$3:$C$17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50" xr:uid="{FAAAC48A-7FB3-4E89-8C57-0DC6EF15D533}">
+      <formula1>$C$3:$C$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26:D41 D44:D56" xr:uid="{2B995E02-DD8D-4884-BC82-88BC1EF1E841}">
+      <formula1>$D$3:$D$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26:B41 B44:B74" xr:uid="{1A7F91FA-2DCF-4A0F-B8E3-827FF5211628}">
+      <formula1>$B$3:$B$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E44:E155 E26:E41" xr:uid="{2682E82B-52AD-4F64-8199-BA95AD28F16C}">
+      <formula1>$E$3:$E$23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:F59" xr:uid="{514B540A-494F-42D1-8AE9-A3E917EB9EE0}">
+      <formula1>$F$3:$F$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E37E90-A3EC-4090-8CD3-265A7E900D11}">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="36" customWidth="1"/>
+    <col min="5" max="6" width="13.625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="78" customWidth="1"/>
+    <col min="8" max="8" width="85.25" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="34"/>
+      <c r="E9" s="34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="34"/>
+      <c r="E10" s="34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D11" s="34"/>
+      <c r="E11" s="34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="34"/>
+      <c r="E12" s="34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="34"/>
+      <c r="E13" s="34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="34"/>
+      <c r="E15" s="34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="34"/>
+      <c r="E16" s="34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D17" s="34"/>
+      <c r="E17" s="34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="42">
+        <v>1</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="37">
+        <v>2</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="37">
+        <v>4</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37">
+        <v>5</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
+      <c r="B33" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="C34" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="31"/>
+      <c r="C35" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+      <c r="C36" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C41" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C42" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C43" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:E155" xr:uid="{799E4645-A038-4436-BD5B-A5DCE84D2949}">
+      <formula1>$E$3:$E$23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26 F29:F54" xr:uid="{9A76B296-3CFB-480B-969B-EBD4353AC383}">
+      <formula1>$F$3:$F$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26 C41:C49 C29:C34" xr:uid="{69BB084A-4976-43C3-B242-C7F0673AD5D0}">
+      <formula1>$C$3:$C$17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50" xr:uid="{20D30926-3F85-46A9-AFFD-A4A6518D09E0}">
+      <formula1>$C$3:$C$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26 D29:D56" xr:uid="{8E334078-CE37-4E87-8A39-2A12A689AA08}">
+      <formula1>$D$3:$D$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26 B29:B74" xr:uid="{91A8D695-B296-4C14-B501-36B89C380067}">
+      <formula1>$B$3:$B$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E035C986-41D0-45D1-A453-91712DB8E56B}">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="36" customWidth="1"/>
+    <col min="5" max="6" width="13.625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="78" customWidth="1"/>
+    <col min="8" max="8" width="85.25" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="34"/>
+      <c r="E9" s="34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="34"/>
+      <c r="E10" s="34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D11" s="34"/>
+      <c r="E11" s="34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="34"/>
+      <c r="E12" s="34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="34"/>
+      <c r="E13" s="34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="34"/>
+      <c r="E15" s="34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="34"/>
+      <c r="E16" s="34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D17" s="34"/>
+      <c r="E17" s="34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="42">
+        <v>1</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="37">
+        <v>2</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="37">
+        <v>4</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37">
+        <v>5</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
+      <c r="B33" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="C34" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="31"/>
+      <c r="C35" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+      <c r="C36" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C41" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C42" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C43" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26 B29:B74" xr:uid="{FABD6498-B6DA-4291-9D8D-8FD5133FD759}">
+      <formula1>$B$3:$B$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26 D29:D56" xr:uid="{935F5CA5-217E-4D66-B5D7-41C4F9CB1C08}">
+      <formula1>$D$3:$D$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50" xr:uid="{9393489C-3DF2-4101-9302-AE951E00AC39}">
+      <formula1>$C$3:$C$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26 C41:C49 C29:C34" xr:uid="{AC218D5A-45B0-45EB-A293-2C7F5FF7101A}">
+      <formula1>$C$3:$C$17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26 F29:F54" xr:uid="{968AD47C-F405-43A3-A701-37C5BE44F662}">
+      <formula1>$F$3:$F$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:E155" xr:uid="{2E1A152E-A092-45A0-A6F2-FF308833B53C}">
+      <formula1>$E$3:$E$23</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0289ED08-2F02-4DDF-8D4C-FFCAA6D5036C}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="D14" sqref="D14:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/기획자료/dot_breeder_dialogue.xlsx
+++ b/기획자료/dot_breeder_dialogue.xlsx
@@ -8,14 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\담비\Desktop\Dot-Breeder\기획자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65106BD-F512-4507-B20B-C02A736DDEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA559DEB-946F-40A8-B0E5-DEAC47F5397A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{7ADB2DC1-EAA6-4923-8D9A-9E941AA8A7EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="5" xr2:uid="{7ADB2DC1-EAA6-4923-8D9A-9E941AA8A7EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="tutorial" sheetId="4" r:id="rId1"/>
-    <sheet name="숲-1" sheetId="6" r:id="rId2"/>
-    <sheet name="adultdot" sheetId="3" r:id="rId3"/>
+    <sheet name="설명" sheetId="8" r:id="rId1"/>
+    <sheet name="EP.0 시작" sheetId="4" r:id="rId2"/>
+    <sheet name="EP.1 낯선 공간" sheetId="9" r:id="rId3"/>
+    <sheet name="EP.2 미지의 생명체" sheetId="10" r:id="rId4"/>
+    <sheet name="Munsik_Interaction" sheetId="11" r:id="rId5"/>
+    <sheet name="Murphin_Interaction" sheetId="12" r:id="rId6"/>
+    <sheet name="Heron_Interaction" sheetId="14" r:id="rId7"/>
+    <sheet name="Agni_Interaction" sheetId="13" r:id="rId8"/>
+    <sheet name="Murphin_ultdot" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,11 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
-  <si>
-    <t>[System]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="196">
   <si>
     <t>분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,23 +199,6 @@
     <t>그래도 돌아다니면서 뭐라도 찾아보자</t>
   </si>
   <si>
-    <t>이동-WASD</t>
-  </si>
-  <si>
-    <t>채집, 상호작용-좌클릭</t>
-  </si>
-  <si>
-    <t>설정-ESC</t>
-  </si>
-  <si>
-    <t>채집자원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">상호작용 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,22 +207,978 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가지고 있던 단검으로 돌을 부실 수 있을 것 같다.</t>
-  </si>
-  <si>
-    <t>선택지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부셔볼까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>playerName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기억나는게… [playerName] 내 이름 밖에 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이외의 내용. 연출, 개발시 고려해야될 사항 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3 으로 구분되며, 1은 내 대사창, 2는 상대 대사창, 3은 시스템 대사창이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임의 이름 창에 실제로 출력되는 내용. 텍스트 박스3 인 경우에는 필요 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임의 대화 창에 실제로 출력되는 내용.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임의 이미지 창에 실제로 출력되는 이미지 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용 대상을 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 상호작용을 했을시 출력되는 대사이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 내 대사</t>
+  </si>
+  <si>
+    <t>1 내 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 상대 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 시스템 대사</t>
+  </si>
+  <si>
+    <t>3 시스템 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자가 증가되고, 100이 되면 다음 텍스트 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅡ</t>
+  </si>
+  <si>
+    <t>이미지 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공 찌푸린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공 기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 내 대사창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 상대 대사창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 시스템 대사창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공 놀란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 시스템메시지</t>
+  </si>
+  <si>
+    <t>1 시스템메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 일반 대사</t>
+  </si>
+  <si>
+    <t>2 일반 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 상호작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerName</t>
+  </si>
+  <si>
+    <t>주인공 웃음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채집자원 돌</t>
+  </si>
+  <si>
+    <t>팻말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 잔해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망가진 조합기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그루터기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채집 자원 돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문 팻말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문 호수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문 건물 잔해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문 망가진 조합기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문 그루터기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문 데이터조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지고 있던 단검으로 부술 수 있을 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사 순서나 창 바뀜을 표기, 상호작용 대사는 순서가 따로 없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>픽셀조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>픽..셀.. 조각? 뭔 진 모르겠지만 가지고 있다 보면 쓸 일이 있지 않을까</t>
+  </si>
+  <si>
+    <t>느낌표 말풍선이 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용 후 채집자원은 사라지고 그 자리에 픽셀조각이 생성.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각 주으면 아이템 획득 UI 뜨고서 느낌표 말풍선이 있음. 상호작용 후 픽셀조각 사라짐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 획득시 대사</t>
+  </si>
+  <si>
+    <t>4 획득시 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 상호작용 대사</t>
+  </si>
+  <si>
+    <t>3 상호작용 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드문드문 글자가 지워져 읽을 수 없다.</t>
+  </si>
+  <si>
+    <t>느낌표 말풍선, 한번 상호작용하면 느낌표 말풍선는 비활성화됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문 팻말</t>
+  </si>
+  <si>
+    <t>호수</t>
+  </si>
+  <si>
+    <t>방문 호수</t>
+  </si>
+  <si>
+    <t>호수에 비친 내 모습이 유독 낯설게 느껴진다.</t>
+  </si>
+  <si>
+    <t>호수에 비친 내 모습이 유독 낯설게 느껴진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공 노이즈</t>
+  </si>
+  <si>
+    <t>주인공 노이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">느낌표 말풍선. 상호작용 -&gt; 컷씬 5초 -&gt; 텍스트출력, 한번 상호작용하면 느낌표 말풍선은 비활성화 됨. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 잔해</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잔해를 파헤쳐 책 한 권을 획득했다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAP을 눌러 내용을 확인해보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느낌표 말풍선. 상호작용-&gt;건물잔해 사라짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">망가졌지만 고쳐서 쓸 수 있을 것 같다. </t>
+  </si>
+  <si>
+    <t>망가진 조합기</t>
+  </si>
+  <si>
+    <t>느낌표 말풍선 있음. 조각 주으면 아이템 획득 UI 뜸. 획득시 픽셀조각 파괴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느낌표 말풍선 있음. 한번 상호작용하면 느낌표 말풍선는 비활성화됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느낌표 말풍선 있음. 채집가능. 상호작용시 느낌표 사라지지 않음. 채집시 채집자원이 파괴되고 그 자리에 픽셀조각 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동-WASD
+상호작용-E
+채집 - 좌클릭
+설정-ESC
+정보창-TAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애들은 다 그러면서 크는거지!</t>
+  </si>
+  <si>
+    <t>요즘 같은 시대에는 근력이 필수지! 근력엔 벌목만한게 없어! 불끈</t>
+  </si>
+  <si>
+    <t>문식이</t>
+  </si>
+  <si>
+    <t>문식이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머핀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아그니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 상대 대사</t>
+  </si>
+  <si>
+    <t>문식이1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머핀1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머핀2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머핀4</t>
+  </si>
+  <si>
+    <t>머핀5</t>
+  </si>
+  <si>
+    <t>헤론1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤론2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤론3</t>
+  </si>
+  <si>
+    <t>헤론4</t>
+  </si>
+  <si>
+    <t>헤론5</t>
+  </si>
+  <si>
+    <t>아그니1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오랜만이네</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>얼굴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요즘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>키우고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>녀석은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나처럼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말썽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피우면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋으련만</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요즘도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취미로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나무를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>깍고있어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필요한거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말만 해</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이1</t>
+  </si>
+  <si>
+    <t>뭄!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>므아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이1 기본</t>
+  </si>
+  <si>
+    <t>문식이1 기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이1 콧물</t>
+  </si>
+  <si>
+    <t>문식이1 콧물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이2 기본</t>
+  </si>
+  <si>
+    <t>문식이2 기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이2 웃는</t>
+  </si>
+  <si>
+    <t>문식이2 웃는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이2 우는</t>
+  </si>
+  <si>
+    <t>문식이2 우는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공 생각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이3 기본</t>
+  </si>
+  <si>
+    <t>문식이3 기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이3 삐짐</t>
+  </si>
+  <si>
+    <t>문식이3 삐짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이4 웃음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이4 기본</t>
+  </si>
+  <si>
+    <t>문식이4 기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">문식이4 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조금만 더 크면 ㅇㅇ의 키를 따라 잡겠어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 나랑 ㅇㅇ은 모습이 다른거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공부는 싫어 하루종일 놀래!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무와 곤충들은 내 친구야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맘마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>까르르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐애앵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이1 시무룩</t>
+  </si>
+  <si>
+    <t>문식이1 시무룩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이5 기본</t>
+  </si>
+  <si>
+    <t>문식이5 기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문식이5 웃음</t>
+  </si>
+  <si>
+    <t>문식이5 웃음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머핀</t>
+  </si>
+  <si>
+    <t>머핀3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머핀4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머핀5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아그니2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아그니3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아그니4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아그니5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머핀1 기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머핀2 기본</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +1186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +1201,59 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -276,10 +1270,34 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -290,7 +1308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,11 +1318,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -321,6 +1459,154 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6038ED69-9232-4FDA-967A-509EF1C7C7EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="2314575"/>
+          <a:ext cx="7772400" cy="2381515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>549519</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>65943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>835268</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>65943</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="말풍선: 사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A15FA2-DA63-434A-B610-9A1CE6FE52D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3363057" y="3040674"/>
+          <a:ext cx="3326423" cy="637442"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -21053"/>
+            <a:gd name="adj2" fmla="val 69397"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>기본 이미지 파일 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t> 주인공 노이즈</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>호수 방문시 이미지파일 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>주인공 기본으로 변경</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -619,219 +1905,3624 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CA02F5-ABFA-4F06-9DB6-AA2C745C2E74}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2B8444-8104-4CDC-8255-2ED3DB01B5C4}">
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="78" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4"/>
+      <c r="E4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7"/>
+      <c r="G7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-    </row>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10"/>
+    </row>
+    <row r="20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3229C261-781D-4B92-837B-6F540171A8C1}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CA02F5-ABFA-4F06-9DB6-AA2C745C2E74}">
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.25" customWidth="1"/>
-    <col min="2" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="78" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="12.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="13.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="78" customWidth="1"/>
+    <col min="8" max="8" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="41">
+        <v>2</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="41">
+        <v>3</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="41">
+        <v>4</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="41">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
+      <c r="B18" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>6</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:B12 B14 B16 B18 B20:B54" xr:uid="{E58E86EE-DDE3-4703-9A2B-374B6C463429}">
+      <formula1>$B$3:$B$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D14 D16 D18 D20:D42" xr:uid="{BF684676-8291-41AE-8029-82F67F182BC7}">
+      <formula1>$D$3:$D$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F12 F14 F16 F18 F20:F40" xr:uid="{9C4FDDD1-4E22-4A36-9001-7EF68880D143}">
+      <formula1>$F$3:$F$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E54 E16 E18 E11:E12 E14" xr:uid="{6F177F1E-19AF-4329-AA90-EC65AF4A6BF1}">
+      <formula1>$E$3:$E$8</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2B4A4F-C426-4474-874A-CC4620811588}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="13.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="78" customWidth="1"/>
+    <col min="8" max="8" width="99.625" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
+        <v>1</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
+        <v>2</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
+        <v>4</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="20">
+        <v>5</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="20">
+        <v>6</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="43">
+        <v>7</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="43"/>
+      <c r="B29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="20">
+        <v>8</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A28:A29"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45" xr:uid="{1DE65D28-390B-4578-95A5-EC25C923B744}">
+      <formula1>$C$3:$C$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:B69" xr:uid="{512D2D93-CF5F-4692-8360-909C1ECD9394}">
+      <formula1>$B$3:$B$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22:D51" xr:uid="{E414E379-9A75-43A3-A2C0-2F8A4A52A87C}">
+      <formula1>$D$3:$D$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:F49" xr:uid="{BA3DECCB-3D49-44DE-AC55-E34231423FC4}">
+      <formula1>$F$3:$F$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22:E63" xr:uid="{427D4ADE-87DA-47FD-8F74-86C922107ABB}">
+      <formula1>$E$3:$E$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C44" xr:uid="{5557C3B2-9BC1-4899-BC78-2231A83B2AEA}">
+      <formula1>$C$3:$C$17</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36C1DB6-A6E7-4F94-8CDF-3A6F08C26A8A}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="13.625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="78" customWidth="1"/>
+    <col min="8" max="8" width="85.25" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="43">
+        <v>1</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="43"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="H22" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="43"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="21">
+        <v>2</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="H24" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="21">
+        <v>3</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="H25" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="21">
+        <v>5</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="43">
+        <v>7</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="43"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="43">
+        <v>8</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="21">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C45" xr:uid="{5DA0E296-2CD5-4F0F-B696-7A29C53AC59A}">
+      <formula1>$C$3:$C$17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46" xr:uid="{5C6B6492-E8C9-489C-84D5-16310E69C820}">
+      <formula1>$C$3:$C$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:E64" xr:uid="{D62B2E70-A95B-4463-B3CB-4B9FBFEF8DCF}">
+      <formula1>$E$3:$E$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:F50" xr:uid="{99A1A5C5-43E4-4406-9CB3-00BF84A30FB8}">
+      <formula1>$F$3:$F$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21:D52" xr:uid="{9DF86B28-CDBF-4AAB-9B45-719E1C7F2E47}">
+      <formula1>$D$3:$D$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B70" xr:uid="{F302878A-C55F-484C-9339-18ADEEFB1A33}">
+      <formula1>$B$3:$B$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD70F404-ABF6-4608-9F31-1DFA6BED79A0}">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="24" customWidth="1"/>
+    <col min="5" max="6" width="13.625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="78" customWidth="1"/>
+    <col min="8" max="8" width="85.25" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="37"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="F22" s="34"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:8" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="43">
+        <v>1</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="30">
+        <v>2</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="30">
+        <v>3</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37">
+        <v>4</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="37">
+        <v>5</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="37">
+        <v>6</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="37">
+        <v>7</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="37">
+        <v>8</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="37">
+        <v>9</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="37">
+        <v>10</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="37">
+        <v>11</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="37">
+        <v>12</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="37">
+        <v>13</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="37">
+        <v>14</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="37">
+        <v>15</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="37">
+        <v>16</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C26:C28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26 B29:B74" xr:uid="{F4090E84-8870-40DA-B53C-332F8D608D25}">
+      <formula1>$B$3:$B$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26 D29:D56" xr:uid="{470B4567-922C-4735-BC99-B8D3AB29FDBB}">
+      <formula1>$D$3:$D$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50" xr:uid="{FA1BE6F2-B154-41B6-BB99-53396726BE62}">
+      <formula1>$C$3:$C$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26 C41:C49 C29:C34" xr:uid="{B93B15DF-4BBA-4F9E-BE38-45EBA1A5A968}">
+      <formula1>$C$3:$C$17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26 F29:F54" xr:uid="{E730E97B-FE0F-4903-AD04-BE638BE8D0A7}">
+      <formula1>$F$3:$F$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:E155" xr:uid="{C17B4FE9-30E0-4663-9E42-25D0359AB030}">
+      <formula1>$E$3:$E$23</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9985A9B1-EB7D-40DF-92F0-C2703D8D4924}">
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="36" customWidth="1"/>
+    <col min="5" max="6" width="13.625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="78" customWidth="1"/>
+    <col min="8" max="8" width="85.25" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="34"/>
+      <c r="E9" s="34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="34"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D17" s="34"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="37">
+        <v>1</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="37">
+        <v>2</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="37">
+        <v>3</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="37">
+        <v>4</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="C32" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
+      <c r="C33" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="C34" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C35" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C36" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G38" s="19"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C41" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C32 C39:C41 C44:C49" xr:uid="{42A68DF2-05B9-458B-AA75-00B3E63741E2}">
+      <formula1>$C$3:$C$17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50" xr:uid="{FAAAC48A-7FB3-4E89-8C57-0DC6EF15D533}">
+      <formula1>$C$3:$C$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26:D41 D44:D56" xr:uid="{2B995E02-DD8D-4884-BC82-88BC1EF1E841}">
+      <formula1>$D$3:$D$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26:B41 B44:B74" xr:uid="{1A7F91FA-2DCF-4A0F-B8E3-827FF5211628}">
+      <formula1>$B$3:$B$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E44:E155 E26:E41" xr:uid="{2682E82B-52AD-4F64-8199-BA95AD28F16C}">
+      <formula1>$E$3:$E$23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:F59" xr:uid="{514B540A-494F-42D1-8AE9-A3E917EB9EE0}">
+      <formula1>$F$3:$F$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E37E90-A3EC-4090-8CD3-265A7E900D11}">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="36" customWidth="1"/>
+    <col min="5" max="6" width="13.625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="78" customWidth="1"/>
+    <col min="8" max="8" width="85.25" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="34"/>
+      <c r="E9" s="34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="34"/>
+      <c r="E10" s="34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D11" s="34"/>
+      <c r="E11" s="34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="34"/>
+      <c r="E12" s="34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="34"/>
+      <c r="E13" s="34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="34"/>
+      <c r="E15" s="34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="34"/>
+      <c r="E16" s="34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D17" s="34"/>
+      <c r="E17" s="34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="43">
+        <v>1</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="37">
+        <v>2</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="37">
+        <v>4</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37">
+        <v>5</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
+      <c r="B33" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="C34" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="31"/>
+      <c r="C35" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+      <c r="C36" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C41" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C42" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C43" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:E155" xr:uid="{799E4645-A038-4436-BD5B-A5DCE84D2949}">
+      <formula1>$E$3:$E$23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26 F29:F54" xr:uid="{9A76B296-3CFB-480B-969B-EBD4353AC383}">
+      <formula1>$F$3:$F$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26 C41:C49 C29:C34" xr:uid="{69BB084A-4976-43C3-B242-C7F0673AD5D0}">
+      <formula1>$C$3:$C$17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50" xr:uid="{20D30926-3F85-46A9-AFFD-A4A6518D09E0}">
+      <formula1>$C$3:$C$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26 D29:D56" xr:uid="{8E334078-CE37-4E87-8A39-2A12A689AA08}">
+      <formula1>$D$3:$D$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26 B29:B74" xr:uid="{91A8D695-B296-4C14-B501-36B89C380067}">
+      <formula1>$B$3:$B$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E035C986-41D0-45D1-A453-91712DB8E56B}">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="36" customWidth="1"/>
+    <col min="5" max="6" width="13.625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="78" customWidth="1"/>
+    <col min="8" max="8" width="85.25" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="34"/>
+      <c r="E9" s="34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="34"/>
+      <c r="E10" s="34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D11" s="34"/>
+      <c r="E11" s="34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="34"/>
+      <c r="E12" s="34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="34"/>
+      <c r="E13" s="34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="34"/>
+      <c r="E15" s="34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="34"/>
+      <c r="E16" s="34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D17" s="34"/>
+      <c r="E17" s="34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="43">
+        <v>1</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="37">
+        <v>2</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="37">
+        <v>4</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37">
+        <v>5</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
+      <c r="B33" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="C34" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="31"/>
+      <c r="C35" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+      <c r="C36" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C41" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C42" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C43" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26 B29:B74" xr:uid="{FABD6498-B6DA-4291-9D8D-8FD5133FD759}">
+      <formula1>$B$3:$B$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26 D29:D56" xr:uid="{935F5CA5-217E-4D66-B5D7-41C4F9CB1C08}">
+      <formula1>$D$3:$D$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50" xr:uid="{9393489C-3DF2-4101-9302-AE951E00AC39}">
+      <formula1>$C$3:$C$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26 C41:C49 C29:C34" xr:uid="{AC218D5A-45B0-45EB-A293-2C7F5FF7101A}">
+      <formula1>$C$3:$C$17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26 F29:F54" xr:uid="{968AD47C-F405-43A3-A701-37C5BE44F662}">
+      <formula1>$F$3:$F$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:E155" xr:uid="{2E1A152E-A092-45A0-A6F2-FF308833B53C}">
+      <formula1>$E$3:$E$23</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0289ED08-2F02-4DDF-8D4C-FFCAA6D5036C}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D14" sqref="D14:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -843,215 +5534,215 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
